--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H2">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N2">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P2">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q2">
-        <v>0.3122578036524445</v>
+        <v>0.2794488172494444</v>
       </c>
       <c r="R2">
-        <v>2.810320232872001</v>
+        <v>2.515039355245</v>
       </c>
       <c r="S2">
-        <v>0.08214540177291217</v>
+        <v>0.08670497339447795</v>
       </c>
       <c r="T2">
-        <v>0.08214540177291214</v>
+        <v>0.08670497339447794</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H3">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.021853</v>
       </c>
       <c r="O3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P3">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q3">
-        <v>0.1756259274004445</v>
+        <v>0.1022999414247778</v>
       </c>
       <c r="R3">
-        <v>1.580633346604001</v>
+        <v>0.920699472823</v>
       </c>
       <c r="S3">
-        <v>0.04620176725545502</v>
+        <v>0.03174074518116302</v>
       </c>
       <c r="T3">
-        <v>0.04620176725545502</v>
+        <v>0.03174074518116302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H4">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N4">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P4">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q4">
-        <v>0.3271337287711112</v>
+        <v>0.130481227627</v>
       </c>
       <c r="R4">
-        <v>2.94420355894</v>
+        <v>1.174331048643</v>
       </c>
       <c r="S4">
-        <v>0.08605879907258943</v>
+        <v>0.04048459206674401</v>
       </c>
       <c r="T4">
-        <v>0.08605879907258941</v>
+        <v>0.04048459206674401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>82.947355</v>
       </c>
       <c r="I5">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J5">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N5">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P5">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q5">
-        <v>0.3580929479077778</v>
+        <v>0.5501713729694445</v>
       </c>
       <c r="R5">
-        <v>3.22283653117</v>
+        <v>4.951542356725</v>
       </c>
       <c r="S5">
-        <v>0.09420321520826348</v>
+        <v>0.1707024374812019</v>
       </c>
       <c r="T5">
-        <v>0.09420321520826345</v>
+        <v>0.1707024374812018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.947355</v>
       </c>
       <c r="I6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.021853</v>
       </c>
       <c r="O6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P6">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q6">
         <v>0.2014053943127778</v>
@@ -821,10 +821,10 @@
         <v>1.812648548815</v>
       </c>
       <c r="S6">
-        <v>0.05298355026370983</v>
+        <v>0.06249033195873532</v>
       </c>
       <c r="T6">
-        <v>0.05298355026370982</v>
+        <v>0.06249033195873531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.947355</v>
       </c>
       <c r="I7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N7">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P7">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q7">
-        <v>0.3751524539194445</v>
+        <v>0.256887958435</v>
       </c>
       <c r="R7">
-        <v>3.376372085275</v>
+        <v>2.311991625915</v>
       </c>
       <c r="S7">
-        <v>0.09869104532486654</v>
+        <v>0.07970498433559828</v>
       </c>
       <c r="T7">
-        <v>0.09869104532486653</v>
+        <v>0.07970498433559828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H8">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I8">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J8">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N8">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P8">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q8">
-        <v>0.4723771710117777</v>
+        <v>0.5153165767761112</v>
       </c>
       <c r="R8">
-        <v>4.251394539105999</v>
+        <v>4.637849190985</v>
       </c>
       <c r="S8">
-        <v>0.1242678711219787</v>
+        <v>0.1598879913641682</v>
       </c>
       <c r="T8">
-        <v>0.1242678711219787</v>
+        <v>0.1598879913641681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H9">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I9">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J9">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,22 +995,22 @@
         <v>0.021853</v>
       </c>
       <c r="O9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P9">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q9">
-        <v>0.2656832840407777</v>
+        <v>0.1886458355354445</v>
       </c>
       <c r="R9">
-        <v>2.391149556367</v>
+        <v>1.697812519819</v>
       </c>
       <c r="S9">
-        <v>0.069893081474973</v>
+        <v>0.05853140590135132</v>
       </c>
       <c r="T9">
-        <v>0.069893081474973</v>
+        <v>0.05853140590135131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H10">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N10">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P10">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q10">
-        <v>0.4948811639994444</v>
+        <v>0.240613434031</v>
       </c>
       <c r="R10">
-        <v>4.453930475995</v>
+        <v>2.165520906279</v>
       </c>
       <c r="S10">
-        <v>0.13018797791785</v>
+        <v>0.0746554650019844</v>
       </c>
       <c r="T10">
-        <v>0.13018797791785</v>
+        <v>0.0746554650019844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H11">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I11">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J11">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1113,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01295133333333333</v>
+        <v>0.01989833333333333</v>
       </c>
       <c r="N11">
-        <v>0.038854</v>
+        <v>0.059695</v>
       </c>
       <c r="O11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="P11">
-        <v>0.3831302015540567</v>
+        <v>0.5455534129646046</v>
       </c>
       <c r="Q11">
-        <v>0.3136578600542222</v>
+        <v>0.4133736277933333</v>
       </c>
       <c r="R11">
-        <v>2.822920740488</v>
+        <v>3.72036265014</v>
       </c>
       <c r="S11">
-        <v>0.08251371345090237</v>
+        <v>0.1282580107247566</v>
       </c>
       <c r="T11">
-        <v>0.08251371345090235</v>
+        <v>0.1282580107247566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H12">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I12">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J12">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.021853</v>
       </c>
       <c r="O12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="P12">
-        <v>0.2154873190549442</v>
+        <v>0.1997148627777118</v>
       </c>
       <c r="Q12">
-        <v>0.1764133735462222</v>
+        <v>0.1513268094173333</v>
       </c>
       <c r="R12">
-        <v>1.587720361916</v>
+        <v>1.361941284756</v>
       </c>
       <c r="S12">
-        <v>0.04640892006080634</v>
+        <v>0.04695237973646213</v>
       </c>
       <c r="T12">
-        <v>0.04640892006080633</v>
+        <v>0.04695237973646213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H13">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I13">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J13">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01356833333333333</v>
+        <v>0.009290999999999999</v>
       </c>
       <c r="N13">
-        <v>0.040705</v>
+        <v>0.027873</v>
       </c>
       <c r="O13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="P13">
-        <v>0.4013824793909991</v>
+        <v>0.2547317242576836</v>
       </c>
       <c r="Q13">
-        <v>0.3286004836955556</v>
+        <v>0.193013872644</v>
       </c>
       <c r="R13">
-        <v>2.95740435326</v>
+        <v>1.737124853796</v>
       </c>
       <c r="S13">
-        <v>0.08644465707569313</v>
+        <v>0.05988668285335692</v>
       </c>
       <c r="T13">
-        <v>0.08644465707569311</v>
+        <v>0.05988668285335692</v>
       </c>
     </row>
   </sheetData>
